--- a/OPM经济数值/一次性奖励.xlsx
+++ b/OPM经济数值/一次性奖励.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1996A2-EBE5-46FF-B9E8-FF89A04E3B6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B934F0-C6D2-451B-B9DF-D60B67C9A4CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4084,6 +4084,7 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
+          <cell r="E39"/>
         </row>
         <row r="40">
           <cell r="A40">
@@ -5696,6 +5697,7 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
+          <cell r="E134"/>
         </row>
         <row r="135">
           <cell r="A135">
@@ -5710,38 +5712,51 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
+          <cell r="E135"/>
         </row>
         <row r="136">
           <cell r="A136">
             <v>612</v>
           </cell>
+          <cell r="B136"/>
+          <cell r="C136"/>
           <cell r="D136" t="str">
             <v>prop,612</v>
           </cell>
+          <cell r="E136"/>
         </row>
         <row r="137">
           <cell r="A137">
             <v>613</v>
           </cell>
+          <cell r="B137"/>
+          <cell r="C137"/>
           <cell r="D137" t="str">
             <v>prop,613</v>
           </cell>
+          <cell r="E137"/>
         </row>
         <row r="138">
           <cell r="A138">
             <v>614</v>
           </cell>
+          <cell r="B138"/>
+          <cell r="C138"/>
           <cell r="D138" t="str">
             <v>prop,614</v>
           </cell>
+          <cell r="E138"/>
         </row>
         <row r="139">
           <cell r="A139">
             <v>615</v>
           </cell>
+          <cell r="B139"/>
+          <cell r="C139"/>
           <cell r="D139" t="str">
             <v>prop,615</v>
           </cell>
+          <cell r="E139"/>
         </row>
         <row r="140">
           <cell r="A140">
@@ -5750,9 +5765,11 @@
           <cell r="B140" t="str">
             <v>公会礼包</v>
           </cell>
+          <cell r="C140"/>
           <cell r="D140" t="str">
             <v>prop,616</v>
           </cell>
+          <cell r="E140"/>
         </row>
         <row r="141">
           <cell r="A141">
@@ -5767,6 +5784,7 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
+          <cell r="E141"/>
         </row>
         <row r="142">
           <cell r="A142">
@@ -5781,6 +5799,7 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
+          <cell r="E142"/>
         </row>
         <row r="143">
           <cell r="A143">
@@ -5795,6 +5814,7 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
+          <cell r="E143"/>
         </row>
         <row r="144">
           <cell r="A144">
@@ -5809,6 +5829,7 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
+          <cell r="E144"/>
         </row>
         <row r="145">
           <cell r="A145">
@@ -5823,6 +5844,7 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
+          <cell r="E145"/>
         </row>
         <row r="146">
           <cell r="A146">
@@ -5837,6 +5859,7 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
+          <cell r="E146"/>
         </row>
         <row r="147">
           <cell r="A147">
@@ -5851,6 +5874,7 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
+          <cell r="E147"/>
         </row>
         <row r="148">
           <cell r="A148">
@@ -5865,6 +5889,7 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
+          <cell r="E148"/>
         </row>
         <row r="149">
           <cell r="A149">
@@ -5879,6 +5904,7 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
+          <cell r="E149"/>
         </row>
         <row r="150">
           <cell r="A150">
@@ -5893,6 +5919,7 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
+          <cell r="E150"/>
         </row>
         <row r="151">
           <cell r="A151">
@@ -5907,6 +5934,7 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
+          <cell r="E151"/>
         </row>
         <row r="152">
           <cell r="A152">
@@ -5921,6 +5949,7 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
+          <cell r="E152"/>
         </row>
         <row r="153">
           <cell r="A153">
@@ -5935,6 +5964,7 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
+          <cell r="E153"/>
         </row>
         <row r="154">
           <cell r="A154">
@@ -5949,6 +5979,7 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
+          <cell r="E154"/>
         </row>
         <row r="155">
           <cell r="A155">
@@ -5963,6 +5994,7 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
+          <cell r="E155"/>
         </row>
         <row r="156">
           <cell r="A156">
@@ -5977,6 +6009,7 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
+          <cell r="E156"/>
         </row>
         <row r="157">
           <cell r="A157">
@@ -6223,6 +6256,7 @@
           <cell r="B171" t="str">
             <v>迷宫复活道具</v>
           </cell>
+          <cell r="C171"/>
           <cell r="D171" t="str">
             <v>prop,809</v>
           </cell>
@@ -14609,7 +14643,7 @@
       </c>
       <c r="I143" s="14">
         <f>SUMIF(副本!$H$20:$H$67,引用!B143,副本!$J$20:$J$67)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J143" s="14">
         <f>SUMIF(副本!$C$72:$C$86,引用!B143,副本!$D$72:$D$86)+SUMIF(副本!$E$72:$E$86,引用!B143,副本!$F$72:$F$86)+SUMIF(副本!$G$72:$G$86,引用!B143,副本!$H$72:$H$86)+SUMIF(副本!$I$72:$I$86,引用!B143,副本!$J$72:$J$86)+SUMIF(副本!$K$72:$K$86,引用!B143,副本!$L$72:$L$86)+SUMIF(副本!$M$72:$M$86,引用!B143,副本!$N$72:$N$86)</f>
@@ -14628,7 +14662,7 @@
       </c>
       <c r="N143" s="18">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -16300,8 +16334,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17082,20 +17116,19 @@
         <v>250</v>
       </c>
       <c r="J20" s="4">
-        <f>IF(I20=250,1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="4">
         <f>I20*J20</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L20" s="4" t="str">
         <f>VLOOKUP(H20,引用!$B:$F,3,0)&amp;","&amp;J20</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M20" s="4" t="str">
         <f>VLOOKUP(H20,引用!$B:$F,5,0)&amp;","&amp;J20</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>119</v>
@@ -17135,11 +17168,10 @@
         <v>50</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" ref="J21:J67" si="2">IF(I21=250,1,2)</f>
         <v>2</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" ref="K21:K67" si="3">I21*J21</f>
+        <f t="shared" ref="K21:K67" si="2">I21*J21</f>
         <v>100</v>
       </c>
       <c r="L21" s="4" t="str">
@@ -17188,11 +17220,10 @@
         <v>50</v>
       </c>
       <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L22" s="4" t="str">
@@ -17241,20 +17272,19 @@
         <v>250</v>
       </c>
       <c r="J23" s="4">
+        <v>2</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L23" s="4" t="str">
         <f>VLOOKUP(H23,引用!$B:$F,3,0)&amp;","&amp;J23</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M23" s="4" t="str">
         <f>VLOOKUP(H23,引用!$B:$F,5,0)&amp;","&amp;J23</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>924</v>
@@ -17291,11 +17321,10 @@
         <v>50</v>
       </c>
       <c r="J24" s="4">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L24" s="4" t="str">
@@ -17344,11 +17373,10 @@
         <v>50</v>
       </c>
       <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L25" s="4" t="str">
@@ -17397,20 +17425,19 @@
         <v>250</v>
       </c>
       <c r="J26" s="4">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L26" s="4" t="str">
         <f>VLOOKUP(H26,引用!$B:$F,3,0)&amp;","&amp;J26</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M26" s="4" t="str">
         <f>VLOOKUP(H26,引用!$B:$F,5,0)&amp;","&amp;J26</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>924</v>
@@ -17450,11 +17477,10 @@
         <v>50</v>
       </c>
       <c r="J27" s="4">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L27" s="4" t="str">
@@ -17503,11 +17529,10 @@
         <v>50</v>
       </c>
       <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L28" s="4" t="str">
@@ -17556,11 +17581,10 @@
         <v>50</v>
       </c>
       <c r="J29" s="4">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L29" s="4" t="str">
@@ -17609,20 +17633,19 @@
         <v>250</v>
       </c>
       <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L30" s="4" t="str">
         <f>VLOOKUP(H30,引用!$B:$F,3,0)&amp;","&amp;J30</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M30" s="4" t="str">
         <f>VLOOKUP(H30,引用!$B:$F,5,0)&amp;","&amp;J30</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>924</v>
@@ -17662,11 +17685,10 @@
         <v>50</v>
       </c>
       <c r="J31" s="4">
+        <v>2</v>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L31" s="4" t="str">
@@ -17715,11 +17737,10 @@
         <v>50</v>
       </c>
       <c r="J32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L32" s="4" t="str">
@@ -17768,11 +17789,10 @@
         <v>50</v>
       </c>
       <c r="J33" s="4">
+        <v>2</v>
+      </c>
+      <c r="K33" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L33" s="4" t="str">
@@ -17821,20 +17841,19 @@
         <v>250</v>
       </c>
       <c r="J34" s="4">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L34" s="4" t="str">
         <f>VLOOKUP(H34,引用!$B:$F,3,0)&amp;","&amp;J34</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M34" s="4" t="str">
         <f>VLOOKUP(H34,引用!$B:$F,5,0)&amp;","&amp;J34</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>924</v>
@@ -17874,11 +17893,10 @@
         <v>50</v>
       </c>
       <c r="J35" s="4">
+        <v>2</v>
+      </c>
+      <c r="K35" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L35" s="4" t="str">
@@ -17927,11 +17945,10 @@
         <v>50</v>
       </c>
       <c r="J36" s="4">
+        <v>2</v>
+      </c>
+      <c r="K36" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L36" s="4" t="str">
@@ -17980,11 +17997,10 @@
         <v>50</v>
       </c>
       <c r="J37" s="4">
+        <v>2</v>
+      </c>
+      <c r="K37" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L37" s="4" t="str">
@@ -18033,20 +18049,19 @@
         <v>250</v>
       </c>
       <c r="J38" s="4">
+        <v>2</v>
+      </c>
+      <c r="K38" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L38" s="4" t="str">
         <f>VLOOKUP(H38,引用!$B:$F,3,0)&amp;","&amp;J38</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M38" s="4" t="str">
         <f>VLOOKUP(H38,引用!$B:$F,5,0)&amp;","&amp;J38</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>924</v>
@@ -18086,11 +18101,10 @@
         <v>50</v>
       </c>
       <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L39" s="4" t="str">
@@ -18139,11 +18153,10 @@
         <v>50</v>
       </c>
       <c r="J40" s="4">
+        <v>2</v>
+      </c>
+      <c r="K40" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L40" s="4" t="str">
@@ -18192,11 +18205,10 @@
         <v>50</v>
       </c>
       <c r="J41" s="4">
+        <v>2</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L41" s="4" t="str">
@@ -18245,20 +18257,19 @@
         <v>250</v>
       </c>
       <c r="J42" s="4">
+        <v>2</v>
+      </c>
+      <c r="K42" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L42" s="4" t="str">
         <f>VLOOKUP(H42,引用!$B:$F,3,0)&amp;","&amp;J42</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M42" s="4" t="str">
         <f>VLOOKUP(H42,引用!$B:$F,5,0)&amp;","&amp;J42</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>924</v>
@@ -18298,11 +18309,10 @@
         <v>50</v>
       </c>
       <c r="J43" s="4">
+        <v>2</v>
+      </c>
+      <c r="K43" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K43" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L43" s="4" t="str">
@@ -18351,11 +18361,10 @@
         <v>50</v>
       </c>
       <c r="J44" s="4">
+        <v>2</v>
+      </c>
+      <c r="K44" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L44" s="4" t="str">
@@ -18404,20 +18413,19 @@
         <v>250</v>
       </c>
       <c r="J45" s="4">
+        <v>2</v>
+      </c>
+      <c r="K45" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L45" s="4" t="str">
         <f>VLOOKUP(H45,引用!$B:$F,3,0)&amp;","&amp;J45</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M45" s="4" t="str">
         <f>VLOOKUP(H45,引用!$B:$F,5,0)&amp;","&amp;J45</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>924</v>
@@ -18457,11 +18465,10 @@
         <v>50</v>
       </c>
       <c r="J46" s="4">
+        <v>2</v>
+      </c>
+      <c r="K46" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K46" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L46" s="4" t="str">
@@ -18510,11 +18517,10 @@
         <v>50</v>
       </c>
       <c r="J47" s="4">
+        <v>2</v>
+      </c>
+      <c r="K47" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K47" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L47" s="4" t="str">
@@ -18563,20 +18569,19 @@
         <v>250</v>
       </c>
       <c r="J48" s="4">
+        <v>2</v>
+      </c>
+      <c r="K48" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L48" s="4" t="str">
         <f>VLOOKUP(H48,引用!$B:$F,3,0)&amp;","&amp;J48</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M48" s="4" t="str">
         <f>VLOOKUP(H48,引用!$B:$F,5,0)&amp;","&amp;J48</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>924</v>
@@ -18616,11 +18621,10 @@
         <v>50</v>
       </c>
       <c r="J49" s="4">
+        <v>2</v>
+      </c>
+      <c r="K49" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K49" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L49" s="4" t="str">
@@ -18669,11 +18673,10 @@
         <v>50</v>
       </c>
       <c r="J50" s="4">
+        <v>2</v>
+      </c>
+      <c r="K50" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K50" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L50" s="4" t="str">
@@ -18722,20 +18725,19 @@
         <v>250</v>
       </c>
       <c r="J51" s="4">
+        <v>2</v>
+      </c>
+      <c r="K51" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K51" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L51" s="4" t="str">
         <f>VLOOKUP(H51,引用!$B:$F,3,0)&amp;","&amp;J51</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M51" s="4" t="str">
         <f>VLOOKUP(H51,引用!$B:$F,5,0)&amp;","&amp;J51</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>924</v>
@@ -18775,11 +18777,10 @@
         <v>50</v>
       </c>
       <c r="J52" s="4">
+        <v>2</v>
+      </c>
+      <c r="K52" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K52" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L52" s="4" t="str">
@@ -18828,11 +18829,10 @@
         <v>50</v>
       </c>
       <c r="J53" s="4">
+        <v>2</v>
+      </c>
+      <c r="K53" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K53" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L53" s="4" t="str">
@@ -18881,20 +18881,19 @@
         <v>250</v>
       </c>
       <c r="J54" s="4">
+        <v>2</v>
+      </c>
+      <c r="K54" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K54" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L54" s="4" t="str">
         <f>VLOOKUP(H54,引用!$B:$F,3,0)&amp;","&amp;J54</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M54" s="4" t="str">
         <f>VLOOKUP(H54,引用!$B:$F,5,0)&amp;","&amp;J54</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>924</v>
@@ -18934,11 +18933,10 @@
         <v>50</v>
       </c>
       <c r="J55" s="4">
+        <v>2</v>
+      </c>
+      <c r="K55" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K55" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L55" s="4" t="str">
@@ -18987,20 +18985,19 @@
         <v>250</v>
       </c>
       <c r="J56" s="4">
+        <v>2</v>
+      </c>
+      <c r="K56" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K56" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L56" s="4" t="str">
         <f>VLOOKUP(H56,引用!$B:$F,3,0)&amp;","&amp;J56</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M56" s="4" t="str">
         <f>VLOOKUP(H56,引用!$B:$F,5,0)&amp;","&amp;J56</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>924</v>
@@ -19040,11 +19037,10 @@
         <v>50</v>
       </c>
       <c r="J57" s="4">
+        <v>2</v>
+      </c>
+      <c r="K57" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K57" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L57" s="4" t="str">
@@ -19093,11 +19089,10 @@
         <v>50</v>
       </c>
       <c r="J58" s="4">
+        <v>2</v>
+      </c>
+      <c r="K58" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K58" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L58" s="4" t="str">
@@ -19146,11 +19141,10 @@
         <v>50</v>
       </c>
       <c r="J59" s="4">
+        <v>2</v>
+      </c>
+      <c r="K59" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K59" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L59" s="4" t="str">
@@ -19199,20 +19193,19 @@
         <v>250</v>
       </c>
       <c r="J60" s="4">
+        <v>2</v>
+      </c>
+      <c r="K60" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K60" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L60" s="4" t="str">
         <f>VLOOKUP(H60,引用!$B:$F,3,0)&amp;","&amp;J60</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M60" s="4" t="str">
         <f>VLOOKUP(H60,引用!$B:$F,5,0)&amp;","&amp;J60</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>924</v>
@@ -19252,11 +19245,10 @@
         <v>50</v>
       </c>
       <c r="J61" s="4">
+        <v>2</v>
+      </c>
+      <c r="K61" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K61" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L61" s="4" t="str">
@@ -19305,11 +19297,10 @@
         <v>50</v>
       </c>
       <c r="J62" s="4">
+        <v>2</v>
+      </c>
+      <c r="K62" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K62" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L62" s="4" t="str">
@@ -19358,11 +19349,10 @@
         <v>50</v>
       </c>
       <c r="J63" s="4">
+        <v>2</v>
+      </c>
+      <c r="K63" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K63" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L63" s="4" t="str">
@@ -19411,20 +19401,19 @@
         <v>250</v>
       </c>
       <c r="J64" s="4">
+        <v>2</v>
+      </c>
+      <c r="K64" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K64" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L64" s="4" t="str">
         <f>VLOOKUP(H64,引用!$B:$F,3,0)&amp;","&amp;J64</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M64" s="4" t="str">
         <f>VLOOKUP(H64,引用!$B:$F,5,0)&amp;","&amp;J64</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>924</v>
@@ -19464,11 +19453,10 @@
         <v>50</v>
       </c>
       <c r="J65" s="4">
+        <v>2</v>
+      </c>
+      <c r="K65" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K65" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L65" s="4" t="str">
@@ -19517,11 +19505,10 @@
         <v>50</v>
       </c>
       <c r="J66" s="4">
+        <v>2</v>
+      </c>
+      <c r="K66" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K66" s="4">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L66" s="4" t="str">
@@ -19570,20 +19557,19 @@
         <v>250</v>
       </c>
       <c r="J67" s="4">
+        <v>2</v>
+      </c>
+      <c r="K67" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K67" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L67" s="4" t="str">
         <f>VLOOKUP(H67,引用!$B:$F,3,0)&amp;","&amp;J67</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="M67" s="4" t="str">
         <f>VLOOKUP(H67,引用!$B:$F,5,0)&amp;","&amp;J67</f>
-        <v>prop,702,1</v>
+        <v>prop,702,2</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>924</v>
@@ -20363,11 +20349,11 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="str">
-        <f t="shared" ref="A88:B100" si="4">C88&amp;";"&amp;E88&amp;IF(G88="","",";"&amp;G88)&amp;IF(I88="","",";"&amp;I88)&amp;IF(K88="","",";"&amp;K88)&amp;IF(M88="","",";"&amp;M88)</f>
+        <f t="shared" ref="A88:B100" si="3">C88&amp;";"&amp;E88&amp;IF(G88="","",";"&amp;G88)&amp;IF(I88="","",";"&amp;I88)&amp;IF(K88="","",";"&amp;K88)&amp;IF(M88="","",";"&amp;M88)</f>
         <v>prop,203,2;prop,203,2;prop,204,2</v>
       </c>
       <c r="B88" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,203,2;prop,203,2;prop,204,2</v>
       </c>
       <c r="C88" s="14" t="str">
@@ -20421,11 +20407,11 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>pack,303,1;pack,303,1;pack,303,1;pack,303,1;pack,304,1</v>
       </c>
       <c r="B89" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>item,103,1;item,103,1;item,103,1;item,103,1;item,104,1</v>
       </c>
       <c r="C89" s="14" t="str">
@@ -20479,11 +20465,11 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,204,2;prop,204,2;prop,322,1;prop,322,1;prop,205,1;prop,205,1</v>
       </c>
       <c r="B90" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,204,2;prop,204,2;prop,322,1;prop,322,1;prop,205,1;prop,205,1</v>
       </c>
       <c r="C90" s="14" t="str">
@@ -20537,11 +20523,11 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,313,1;prop,316,1;prop,313,1;prop,316,1;prop,314,1;prop,317,1</v>
       </c>
       <c r="B91" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,313,1;prop,316,1;prop,313,1;prop,316,1;prop,314,1;prop,317,1</v>
       </c>
       <c r="C91" s="14" t="str">
@@ -20595,11 +20581,11 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>pack,303,1;pack,303,1;pack,303,1;pack,303,1;pack,304,1;pack,304,1</v>
       </c>
       <c r="B92" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>item,103,1;item,103,1;item,103,1;item,103,1;item,104,1;item,104,1</v>
       </c>
       <c r="C92" s="14" t="str">
@@ -20653,11 +20639,11 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,205,1;prop,205,1;prop,205,1;prop,205,1;prop,206,1;prop,206,1</v>
       </c>
       <c r="B93" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,205,1;prop,205,1;prop,205,1;prop,205,1;prop,206,1;prop,206,1</v>
       </c>
       <c r="C93" s="14" t="str">
@@ -20711,11 +20697,11 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="B94" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="C94" s="14" t="str">
@@ -20769,11 +20755,11 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>pack,303,1;pack,303,1;pack,303,1;pack,303,1;pack,304,1;pack,304,1</v>
       </c>
       <c r="B95" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>item,103,1;item,103,1;item,103,1;item,103,1;item,104,1;item,104,1</v>
       </c>
       <c r="C95" s="14" t="str">
@@ -20827,11 +20813,11 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,206,1;prop,206,1;prop,206,1;prop,206,1;prop,323,1;prop,323,1</v>
       </c>
       <c r="B96" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,206,1;prop,206,1;prop,206,1;prop,206,1;prop,323,1;prop,323,1</v>
       </c>
       <c r="C96" s="14" t="str">
@@ -20885,11 +20871,11 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="B97" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="C97" s="14" t="str">
@@ -20943,11 +20929,11 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>pack,304,1;pack,304,1;pack,304,1;pack,304,1;pack,304,1;pack,304,1</v>
       </c>
       <c r="B98" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>item,104,1;item,104,1;item,104,1;item,104,1;item,104,1;item,104,1</v>
       </c>
       <c r="C98" s="14" t="str">
@@ -21001,11 +20987,11 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,322,1;prop,322,1;prop,322,1;prop,322,1;prop,323,1;prop,323,1</v>
       </c>
       <c r="B99" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,322,1;prop,322,1;prop,322,1;prop,322,1;prop,323,1;prop,323,1</v>
       </c>
       <c r="C99" s="14" t="str">
@@ -21059,11 +21045,11 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="B100" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="C100" s="14" t="str">

--- a/OPM经济数值/一次性奖励.xlsx
+++ b/OPM经济数值/一次性奖励.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B934F0-C6D2-451B-B9DF-D60B67C9A4CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404D2BF-679A-4A5B-842C-6EFAB70E4DA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="引用" sheetId="1" r:id="rId1"/>
@@ -16334,8 +16334,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21479,8 +21479,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/OPM经济数值/一次性奖励.xlsx
+++ b/OPM经济数值/一次性奖励.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1019">
   <si>
     <t>&lt;引用&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3751,6 +3751,10 @@
   </si>
   <si>
     <t>Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4097,6 +4101,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>代币</v>
+          </cell>
+        </row>
         <row r="13">
           <cell r="B13" t="str">
             <v>随机1星饰品</v>
@@ -4329,6 +4338,9 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
@@ -5941,6 +5953,9 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
+          <cell r="E134">
+            <v>0</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="A135">
@@ -5955,37 +5970,76 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
+          <cell r="E135">
+            <v>0</v>
+          </cell>
         </row>
         <row r="136">
           <cell r="A136">
             <v>612</v>
           </cell>
+          <cell r="B136">
+            <v>0</v>
+          </cell>
+          <cell r="C136">
+            <v>0</v>
+          </cell>
           <cell r="D136" t="str">
             <v>prop,612</v>
+          </cell>
+          <cell r="E136">
+            <v>0</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
             <v>613</v>
           </cell>
+          <cell r="B137">
+            <v>0</v>
+          </cell>
+          <cell r="C137">
+            <v>0</v>
+          </cell>
           <cell r="D137" t="str">
             <v>prop,613</v>
+          </cell>
+          <cell r="E137">
+            <v>0</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
             <v>614</v>
           </cell>
+          <cell r="B138">
+            <v>0</v>
+          </cell>
+          <cell r="C138">
+            <v>0</v>
+          </cell>
           <cell r="D138" t="str">
             <v>prop,614</v>
+          </cell>
+          <cell r="E138">
+            <v>0</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
             <v>615</v>
           </cell>
+          <cell r="B139">
+            <v>0</v>
+          </cell>
+          <cell r="C139">
+            <v>0</v>
+          </cell>
           <cell r="D139" t="str">
             <v>prop,615</v>
+          </cell>
+          <cell r="E139">
+            <v>0</v>
           </cell>
         </row>
         <row r="140">
@@ -5995,8 +6049,14 @@
           <cell r="B140" t="str">
             <v>公会礼包</v>
           </cell>
+          <cell r="C140">
+            <v>0</v>
+          </cell>
           <cell r="D140" t="str">
             <v>prop,616</v>
+          </cell>
+          <cell r="E140">
+            <v>0</v>
           </cell>
         </row>
         <row r="141">
@@ -6012,6 +6072,9 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
+          <cell r="E141">
+            <v>0</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="A142">
@@ -6026,6 +6089,9 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
+          <cell r="E142">
+            <v>0</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="A143">
@@ -6040,6 +6106,9 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
+          <cell r="E143">
+            <v>0</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="A144">
@@ -6054,6 +6123,9 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
+          <cell r="E144">
+            <v>0</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="A145">
@@ -6068,6 +6140,9 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
+          <cell r="E145">
+            <v>0</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="A146">
@@ -6082,6 +6157,9 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
+          <cell r="E146">
+            <v>0</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="A147">
@@ -6096,6 +6174,9 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
+          <cell r="E147">
+            <v>0</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="A148">
@@ -6110,6 +6191,9 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
+          <cell r="E148">
+            <v>0</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="A149">
@@ -6124,6 +6208,9 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
+          <cell r="E149">
+            <v>0</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="A150">
@@ -6138,6 +6225,9 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
+          <cell r="E150">
+            <v>0</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="A151">
@@ -6152,6 +6242,9 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
+          <cell r="E151">
+            <v>0</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="A152">
@@ -6166,6 +6259,9 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
+          <cell r="E152">
+            <v>0</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="A153">
@@ -6180,6 +6276,9 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
+          <cell r="E153">
+            <v>0</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="A154">
@@ -6194,6 +6293,9 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
+          <cell r="E154">
+            <v>0</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="A155">
@@ -6208,6 +6310,9 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
+          <cell r="E155">
+            <v>0</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="A156">
@@ -6222,6 +6327,9 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
+          <cell r="E156">
+            <v>0</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="A157">
@@ -6468,6 +6576,9 @@
           <cell r="B171" t="str">
             <v>迷宫复活道具</v>
           </cell>
+          <cell r="C171">
+            <v>0</v>
+          </cell>
           <cell r="D171" t="str">
             <v>prop,809</v>
           </cell>
@@ -6745,6 +6856,11 @@
           </cell>
           <cell r="E187">
             <v>200</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>0</v>
           </cell>
         </row>
         <row r="189">
@@ -20815,10 +20931,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AJ100"/>
+  <dimension ref="A1:AK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="G42" workbookViewId="0">
+      <selection activeCell="U86" sqref="U86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21528,12 +21644,12 @@
         <v>prop,206,2;prop,315,1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
@@ -21637,8 +21753,11 @@
       <c r="AJ19" s="5" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AK19" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>71</v>
       </c>
@@ -21713,7 +21832,7 @@
       <c r="AI20" s="8"/>
       <c r="AJ20" s="5"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>72</v>
       </c>
@@ -21838,7 +21957,7 @@
         <v>prop,701,2;prop,702,2;cash,200</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>73</v>
       </c>
@@ -21964,8 +22083,12 @@
         <f t="shared" ref="AJ22:AJ34" si="8">AD22&amp;";"&amp;AE22&amp;";"&amp;AF22</f>
         <v>prop,701,2;prop,702,2;hero,10</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AK22" s="3" t="str">
+        <f>AF22</f>
+        <v>hero,10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>74</v>
       </c>
@@ -22090,7 +22213,7 @@
         <v>prop,701,2;prop,702,2;cash,200</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
@@ -22212,7 +22335,7 @@
         <v>prop,701,2;prop,702,2;cash,200</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>76</v>
       </c>
@@ -22338,8 +22461,12 @@
         <f t="shared" si="8"/>
         <v>prop,701,2;prop,702,2;hero,8</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AK25" s="3" t="str">
+        <f>AF25</f>
+        <v>hero,8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>77</v>
       </c>
@@ -22464,7 +22591,7 @@
         <v>prop,701,2;prop,702,2;cash,200</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
@@ -22589,7 +22716,7 @@
         <v>prop,701,2;prop,702,2;cash,200</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -22715,8 +22842,12 @@
         <f t="shared" si="8"/>
         <v>prop,701,2;prop,702,2;hero,31</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AK28" s="3" t="str">
+        <f>AF28</f>
+        <v>hero,31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>80</v>
       </c>
@@ -22841,7 +22972,7 @@
         <v>prop,701,2;prop,702,2;cash,200</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
@@ -22966,7 +23097,7 @@
         <v>prop,701,2;prop,702,2;cash,200</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>82</v>
       </c>
@@ -23092,8 +23223,12 @@
         <f t="shared" si="8"/>
         <v>prop,701,2;prop,702,2;hero,33</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AK31" s="3" t="str">
+        <f>AF31</f>
+        <v>hero,33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>83</v>
       </c>
@@ -23218,7 +23353,7 @@
         <v>prop,701,2;prop,702,2;cash,200</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>84</v>
       </c>
@@ -23343,7 +23478,7 @@
         <v>prop,701,2;prop,702,2;cash,200</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
@@ -23469,8 +23604,12 @@
         <f t="shared" si="8"/>
         <v>prop,701,2;prop,702,2;hero,39</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AK34" s="3" t="str">
+        <f>AF34</f>
+        <v>hero,39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>86</v>
       </c>
@@ -23522,7 +23661,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>87</v>
       </c>
@@ -23574,7 +23713,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>88</v>
       </c>
@@ -23626,7 +23765,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>89</v>
       </c>
@@ -23678,7 +23817,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>90</v>
       </c>
@@ -23730,7 +23869,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -23782,7 +23921,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>92</v>
       </c>
@@ -23834,7 +23973,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>93</v>
       </c>
@@ -23886,7 +24025,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -23938,7 +24077,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>95</v>
       </c>
@@ -23990,7 +24129,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>96</v>
       </c>
@@ -24042,7 +24181,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -24094,7 +24233,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>98</v>
       </c>
@@ -24146,7 +24285,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>99</v>
       </c>

--- a/OPM经济数值/一次性奖励.xlsx
+++ b/OPM经济数值/一次性奖励.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38060" windowHeight="20060" activeTab="1"/>
+    <workbookView xWindow="-37380" yWindow="700" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="引用" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1018">
   <si>
     <t>&lt;引用&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3747,10 +3747,6 @@
     <rPh sb="0" eb="1">
       <t>gao'jia'zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4101,11 +4097,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>代币</v>
-          </cell>
-        </row>
         <row r="13">
           <cell r="B13" t="str">
             <v>随机1星饰品</v>
@@ -7949,9 +7940,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20931,10 +20922,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AK100"/>
+  <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" workbookViewId="0">
-      <selection activeCell="U86" sqref="U86"/>
+    <sheetView tabSelected="1" topLeftCell="N3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21644,12 +21635,12 @@
         <v>prop,206,2;prop,315,1</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
@@ -21750,14 +21741,11 @@
       <c r="AI19" s="47" t="s">
         <v>1001</v>
       </c>
-      <c r="AJ19" s="5" t="s">
+      <c r="AJ19" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="AK19" s="3" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>71</v>
       </c>
@@ -21830,9 +21818,8 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="5"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>72</v>
       </c>
@@ -21952,12 +21939,8 @@
         <f t="shared" ref="AI21:AI34" si="4">AH21*1/3&amp;","&amp;AH21*2/3&amp;","&amp;AH21</f>
         <v>3,6,9</v>
       </c>
-      <c r="AJ21" s="8" t="str">
-        <f>AD21&amp;";"&amp;AE21&amp;";"&amp;AF21</f>
-        <v>prop,701,2;prop,702,2;cash,200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>73</v>
       </c>
@@ -22079,16 +22062,12 @@
         <f t="shared" si="4"/>
         <v>3,6,9</v>
       </c>
-      <c r="AJ22" s="8" t="str">
-        <f t="shared" ref="AJ22:AJ34" si="8">AD22&amp;";"&amp;AE22&amp;";"&amp;AF22</f>
-        <v>prop,701,2;prop,702,2;hero,10</v>
-      </c>
-      <c r="AK22" s="3" t="str">
-        <f>AF22</f>
-        <v>hero,10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AJ22" s="3" t="str">
+        <f>AE22</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>74</v>
       </c>
@@ -22208,12 +22187,8 @@
         <f t="shared" si="4"/>
         <v>4,8,12</v>
       </c>
-      <c r="AJ23" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;cash,200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
@@ -22330,12 +22305,8 @@
         <f t="shared" si="4"/>
         <v>4,8,12</v>
       </c>
-      <c r="AJ24" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;cash,200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>76</v>
       </c>
@@ -22457,16 +22428,12 @@
         <f t="shared" si="4"/>
         <v>4,8,12</v>
       </c>
-      <c r="AJ25" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;hero,8</v>
-      </c>
-      <c r="AK25" s="3" t="str">
-        <f>AF25</f>
-        <v>hero,8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AJ25" s="3" t="str">
+        <f>AE25</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>77</v>
       </c>
@@ -22586,12 +22553,8 @@
         <f t="shared" si="4"/>
         <v>4,8,12</v>
       </c>
-      <c r="AJ26" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;cash,200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
@@ -22711,12 +22674,8 @@
         <f t="shared" si="4"/>
         <v>3,6,9</v>
       </c>
-      <c r="AJ27" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;cash,200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -22838,16 +22797,12 @@
         <f t="shared" si="4"/>
         <v>3,6,9</v>
       </c>
-      <c r="AJ28" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;hero,31</v>
-      </c>
-      <c r="AK28" s="3" t="str">
-        <f>AF28</f>
-        <v>hero,31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AJ28" s="3" t="str">
+        <f>AE28</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>80</v>
       </c>
@@ -22967,12 +22922,8 @@
         <f t="shared" si="4"/>
         <v>3,6,9</v>
       </c>
-      <c r="AJ29" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;cash,200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
@@ -23092,12 +23043,8 @@
         <f t="shared" si="4"/>
         <v>3,6,9</v>
       </c>
-      <c r="AJ30" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;cash,200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>82</v>
       </c>
@@ -23219,16 +23166,12 @@
         <f t="shared" si="4"/>
         <v>2,4,6</v>
       </c>
-      <c r="AJ31" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;hero,33</v>
-      </c>
-      <c r="AK31" s="3" t="str">
-        <f>AF31</f>
-        <v>hero,33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AJ31" s="3" t="str">
+        <f>AE31</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>83</v>
       </c>
@@ -23348,12 +23291,8 @@
         <f t="shared" si="4"/>
         <v>4,8,12</v>
       </c>
-      <c r="AJ32" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;cash,200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>84</v>
       </c>
@@ -23473,12 +23412,8 @@
         <f t="shared" si="4"/>
         <v>4,8,12</v>
       </c>
-      <c r="AJ33" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;cash,200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
@@ -23600,16 +23535,12 @@
         <f t="shared" si="4"/>
         <v>3,6,9</v>
       </c>
-      <c r="AJ34" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>prop,701,2;prop,702,2;hero,39</v>
-      </c>
-      <c r="AK34" s="3" t="str">
-        <f>AF34</f>
-        <v>hero,39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AJ34" s="3" t="str">
+        <f>AE34</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>86</v>
       </c>
@@ -23661,7 +23592,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>87</v>
       </c>
@@ -23713,7 +23644,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>88</v>
       </c>
@@ -23765,7 +23696,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>89</v>
       </c>
@@ -23817,7 +23748,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>90</v>
       </c>
@@ -23869,7 +23800,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -23921,7 +23852,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>92</v>
       </c>
@@ -23973,7 +23904,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>93</v>
       </c>
@@ -24025,7 +23956,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -24077,7 +24008,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>95</v>
       </c>
@@ -24129,7 +24060,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>96</v>
       </c>
@@ -24181,7 +24112,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -24233,7 +24164,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>98</v>
       </c>
@@ -24285,7 +24216,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>99</v>
       </c>
@@ -26099,11 +26030,11 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="17" t="str">
-        <f t="shared" ref="A88:B100" si="9">C88&amp;";"&amp;E88&amp;IF(G88="","",";"&amp;G88)&amp;IF(I88="","",";"&amp;I88)&amp;IF(K88="","",";"&amp;K88)&amp;IF(M88="","",";"&amp;M88)</f>
+        <f t="shared" ref="A88:B100" si="8">C88&amp;";"&amp;E88&amp;IF(G88="","",";"&amp;G88)&amp;IF(I88="","",";"&amp;I88)&amp;IF(K88="","",";"&amp;K88)&amp;IF(M88="","",";"&amp;M88)</f>
         <v>prop,203,2;prop,203,2;prop,204,2</v>
       </c>
       <c r="B88" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,203,2;prop,203,2;prop,204,2</v>
       </c>
       <c r="C88" s="14" t="str">
@@ -26157,11 +26088,11 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>pack,303,1;pack,303,1;pack,303,1;pack,303,1;pack,304,1</v>
       </c>
       <c r="B89" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>item,103,1;item,103,1;item,103,1;item,103,1;item,104,1</v>
       </c>
       <c r="C89" s="14" t="str">
@@ -26215,11 +26146,11 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,204,2;prop,204,2;prop,322,1;prop,322,1;prop,205,1;prop,205,1</v>
       </c>
       <c r="B90" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,204,2;prop,204,2;prop,322,1;prop,322,1;prop,205,1;prop,205,1</v>
       </c>
       <c r="C90" s="14" t="str">
@@ -26273,11 +26204,11 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,313,1;prop,316,1;prop,313,1;prop,316,1;prop,314,1;prop,317,1</v>
       </c>
       <c r="B91" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,313,1;prop,316,1;prop,313,1;prop,316,1;prop,314,1;prop,317,1</v>
       </c>
       <c r="C91" s="14" t="str">
@@ -26331,11 +26262,11 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>pack,303,1;pack,303,1;pack,303,1;pack,303,1;pack,304,1;pack,304,1</v>
       </c>
       <c r="B92" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>item,103,1;item,103,1;item,103,1;item,103,1;item,104,1;item,104,1</v>
       </c>
       <c r="C92" s="14" t="str">
@@ -26389,11 +26320,11 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,205,1;prop,205,1;prop,205,1;prop,205,1;prop,206,1;prop,206,1</v>
       </c>
       <c r="B93" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,205,1;prop,205,1;prop,205,1;prop,205,1;prop,206,1;prop,206,1</v>
       </c>
       <c r="C93" s="14" t="str">
@@ -26447,11 +26378,11 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="B94" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="C94" s="14" t="str">
@@ -26505,11 +26436,11 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>pack,303,1;pack,303,1;pack,303,1;pack,303,1;pack,304,1;pack,304,1</v>
       </c>
       <c r="B95" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>item,103,1;item,103,1;item,103,1;item,103,1;item,104,1;item,104,1</v>
       </c>
       <c r="C95" s="14" t="str">
@@ -26563,11 +26494,11 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,206,1;prop,206,1;prop,206,1;prop,206,1;prop,323,1;prop,323,1</v>
       </c>
       <c r="B96" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,206,1;prop,206,1;prop,206,1;prop,206,1;prop,323,1;prop,323,1</v>
       </c>
       <c r="C96" s="14" t="str">
@@ -26621,11 +26552,11 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="B97" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="C97" s="14" t="str">
@@ -26679,11 +26610,11 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>pack,304,1;pack,304,1;pack,304,1;pack,304,1;pack,304,1;pack,304,1</v>
       </c>
       <c r="B98" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>item,104,1;item,104,1;item,104,1;item,104,1;item,104,1;item,104,1</v>
       </c>
       <c r="C98" s="14" t="str">
@@ -26737,11 +26668,11 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,322,1;prop,322,1;prop,322,1;prop,322,1;prop,323,1;prop,323,1</v>
       </c>
       <c r="B99" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,322,1;prop,322,1;prop,322,1;prop,322,1;prop,323,1;prop,323,1</v>
       </c>
       <c r="C99" s="14" t="str">
@@ -26795,11 +26726,11 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="B100" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>prop,314,1;prop,317,1;prop,314,1;prop,317,1;prop,315,1;prop,318,1</v>
       </c>
       <c r="C100" s="14" t="str">

--- a/OPM经济数值/一次性奖励.xlsx
+++ b/OPM经济数值/一次性奖励.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37380" yWindow="700" windowWidth="38400" windowHeight="20080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="引用" sheetId="1" r:id="rId1"/>
@@ -20925,7 +20925,7 @@
   <dimension ref="A1:AJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+      <selection activeCell="AJ29" sqref="AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22063,8 +22063,8 @@
         <v>3,6,9</v>
       </c>
       <c r="AJ22" s="3" t="str">
-        <f>AE22</f>
-        <v>prop,702,2</v>
+        <f>AF22</f>
+        <v>hero,10</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.15">
@@ -22268,20 +22268,22 @@
         <v>500</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>912</v>
+        <v>1006</v>
       </c>
       <c r="Z24" s="4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="4">
         <f>VLOOKUP(Y24,引用!$B:$F,4,0)</f>
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="AB24" s="4">
         <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="AC24" s="4"/>
+        <v>800</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>1</v>
+      </c>
       <c r="AD24" s="8" t="str">
         <f>VLOOKUP(Q24,引用!$B:$F,3,0)&amp;","&amp;R24</f>
         <v>prop,701,2</v>
@@ -22292,7 +22294,7 @@
       </c>
       <c r="AF24" s="8" t="str">
         <f>VLOOKUP(Y24,引用!$B:$F,3,0)&amp;IF(AC24=1,"",","&amp;Z24)</f>
-        <v>cash,200</v>
+        <v>hero,8</v>
       </c>
       <c r="AG24" s="4">
         <v>4</v>
@@ -22305,6 +22307,10 @@
         <f t="shared" si="4"/>
         <v>4,8,12</v>
       </c>
+      <c r="AJ24" s="3" t="str">
+        <f>AF24</f>
+        <v>hero,8</v>
+      </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
@@ -22389,22 +22395,20 @@
         <v>500</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>1006</v>
+        <v>912</v>
       </c>
       <c r="Z25" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="AA25" s="4">
         <f>VLOOKUP(Y25,引用!$B:$F,4,0)</f>
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="4">
         <f t="shared" si="7"/>
-        <v>800</v>
-      </c>
-      <c r="AC25" s="4">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AC25" s="4"/>
       <c r="AD25" s="8" t="str">
         <f>VLOOKUP(Q25,引用!$B:$F,3,0)&amp;","&amp;R25</f>
         <v>prop,701,2</v>
@@ -22415,7 +22419,7 @@
       </c>
       <c r="AF25" s="8" t="str">
         <f>VLOOKUP(Y25,引用!$B:$F,3,0)&amp;IF(AC25=1,"",","&amp;Z25)</f>
-        <v>hero,8</v>
+        <v>cash,200</v>
       </c>
       <c r="AG25" s="4">
         <v>4</v>
@@ -22427,10 +22431,6 @@
       <c r="AI25" s="4" t="str">
         <f t="shared" si="4"/>
         <v>4,8,12</v>
-      </c>
-      <c r="AJ25" s="3" t="str">
-        <f>AE25</f>
-        <v>prop,702,2</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.15">
@@ -22798,8 +22798,8 @@
         <v>3,6,9</v>
       </c>
       <c r="AJ28" s="3" t="str">
-        <f>AE28</f>
-        <v>prop,702,2</v>
+        <f>AF28</f>
+        <v>hero,31</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.15">
@@ -23167,8 +23167,8 @@
         <v>2,4,6</v>
       </c>
       <c r="AJ31" s="3" t="str">
-        <f>AE31</f>
-        <v>prop,702,2</v>
+        <f>AF31</f>
+        <v>hero,33</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.15">
@@ -23536,8 +23536,8 @@
         <v>3,6,9</v>
       </c>
       <c r="AJ34" s="3" t="str">
-        <f>AE34</f>
-        <v>prop,702,2</v>
+        <f>AF34</f>
+        <v>hero,39</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.15">
